--- a/TÜRKİYENİN FINDIK ÜRETİM ALANLARI.xlsx
+++ b/TÜRKİYENİN FINDIK ÜRETİM ALANLARI.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
   <si>
     <t>İLLER</t>
   </si>
@@ -94,12 +94,31 @@
   </si>
   <si>
     <t>TOPLAM</t>
+  </si>
+  <si>
+    <t>8 yılda max hektar</t>
+  </si>
+  <si>
+    <t>8 yılda min hektar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015 toplam hektar </t>
+  </si>
+  <si>
+    <t>2015 ortalama hektar</t>
+  </si>
+  <si>
+    <t>8 yılda ortalama hektar</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="165" formatCode="0.000000%"/>
+    <numFmt numFmtId="166" formatCode="0.0000000"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -139,10 +158,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -437,15 +458,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" customWidth="1"/>
+    <col min="1" max="1" width="26" customWidth="1"/>
     <col min="2" max="3" width="12.33203125" customWidth="1"/>
     <col min="4" max="4" width="12.21875" customWidth="1"/>
     <col min="5" max="5" width="13.109375" customWidth="1"/>
@@ -948,6 +969,55 @@
       <c r="I17" s="2">
         <v>689421</v>
       </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="2">
+        <f>SUM(I2:I16)</f>
+        <v>689421</v>
+      </c>
+      <c r="D23" s="4"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="2">
+        <f>MAX(B2:I16)</f>
+        <v>227121</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="2">
+        <f>MIN(B2:I16)</f>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="2">
+        <f>AVERAGE(I2:I16)</f>
+        <v>45961.4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="2">
+        <f>AVERAGE(B17:I17)</f>
+        <v>684795.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="B28" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
